--- a/src/test/resources/LoginData.xlsx
+++ b/src/test/resources/LoginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Training\PeopleNTech\BITM Online 7\TestAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37244FDA-4393-42AE-962F-A8012574EDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BAB39B-6235-40FD-BBE4-6C9ADE12D3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
   <si>
     <t>Email</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Result</t>
-  </si>
-  <si>
-    <t>user101@gmail.com</t>
   </si>
   <si>
     <t>Not Login</t>
@@ -387,7 +384,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A5" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,7 +412,7 @@
         <v>123456</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -426,7 +423,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -437,18 +434,13 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="1"/>
+      <c r="C5" t="s">
         <v>8</v>
-      </c>
-      <c r="B5">
-        <v>123456</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -457,7 +449,6 @@
     <hyperlink ref="A3:A4" r:id="rId2" display="email@test.com" xr:uid="{7BFDBE26-B0E0-4128-A41A-720C646A8F49}"/>
     <hyperlink ref="A3" r:id="rId3" xr:uid="{B0ABAFAA-FD87-4F0E-A109-090614988C8B}"/>
     <hyperlink ref="A4" r:id="rId4" xr:uid="{4AAE4C0D-6EFD-4B49-9D21-6F194ABF6379}"/>
-    <hyperlink ref="A5" r:id="rId5" xr:uid="{239AAF1D-B9A4-4FBF-BC3C-77ED25F4F3A0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/LoginData.xlsx
+++ b/src/test/resources/LoginData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="9">
   <si>
     <t>Email</t>
   </si>
